--- a/HW3 IR ALGORITHM ARCHITECTS/חישובים.xlsx
+++ b/HW3 IR ALGORITHM ARCHITECTS/חישובים.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11\Desktop\project ir\HW3 IR ALGORITHM ARCHITECTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8F92A2-1EDA-4871-9EB1-880A9D8BF30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0C017B-E828-4D26-B441-2A3E925F5D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F16298FC-AFB4-42E9-B13C-B4FA8F042B57}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{F16298FC-AFB4-42E9-B13C-B4FA8F042B57}"/>
   </bookViews>
   <sheets>
     <sheet name="שאלה 2ב" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="111">
   <si>
     <t>איטרציה ראשונה:</t>
   </si>
@@ -99,60 +99,15 @@
     <t>Iteration 1</t>
   </si>
   <si>
-    <t>PR(A) = (1-d) + d(PR(B)/C(B))</t>
-  </si>
-  <si>
-    <t>PR(A) = 0.150 + 0.85(1.000/1) = 1.000</t>
-  </si>
-  <si>
-    <t>PR(B) = (1-d) + d(PR(A)/C(A))</t>
-  </si>
-  <si>
-    <t>PR(B) = 0.150 + 0.85(1.000/2) = 0.575</t>
-  </si>
-  <si>
-    <t>PR(C) = (1-d) + d(PR(A)/C(A))</t>
-  </si>
-  <si>
-    <t>PR(C) = 0.150 + 0.85(1.000/2) = 0.575</t>
-  </si>
-  <si>
     <t>Iteration 2</t>
   </si>
   <si>
-    <t>PR(A) = 0.150 + 0.85(0.575/1) = 0.639</t>
-  </si>
-  <si>
-    <t>PR(B) = 0.150 + 0.85(0.639/2) = 0.421</t>
-  </si>
-  <si>
-    <t>PR(C) = 0.150 + 0.85(0.639/2) = 0.421</t>
-  </si>
-  <si>
     <t>Iteration 3</t>
   </si>
   <si>
-    <t>PR(A) = 0.150 + 0.85(0.421/1) = 0.508</t>
-  </si>
-  <si>
-    <t>PR(B) = 0.150 + 0.85(0.508/2) = 0.366</t>
-  </si>
-  <si>
-    <t>PR(C) = 0.150 + 0.85(0.508/2) = 0.366</t>
-  </si>
-  <si>
     <t>Iteration 4</t>
   </si>
   <si>
-    <t>PR(A) = 0.150 + 0.85(0.366/1) = 0.461</t>
-  </si>
-  <si>
-    <t>PR(B) = 0.150 + 0.85(0.461/2) = 0.346</t>
-  </si>
-  <si>
-    <t>PR(C) = 0.150 + 0.85(0.461/2) = 0.346</t>
-  </si>
-  <si>
     <t xml:space="preserve">עבור authority: </t>
   </si>
   <si>
@@ -292,13 +247,136 @@
   </si>
   <si>
     <t>h(C) = 0.72/2.08=0.34</t>
+  </si>
+  <si>
+    <t>PR(D) = 1</t>
+  </si>
+  <si>
+    <t>PR(E) = 1</t>
+  </si>
+  <si>
+    <t>PR(F) = 1</t>
+  </si>
+  <si>
+    <t>PR(G) = 1</t>
+  </si>
+  <si>
+    <t>PR(H) = 1</t>
+  </si>
+  <si>
+    <t>PR(I) = 1</t>
+  </si>
+  <si>
+    <t>PR(J) = 1</t>
+  </si>
+  <si>
+    <t>PR(A) = (1-d) + d(PR(C)/C(C))</t>
+  </si>
+  <si>
+    <t>PR(A) = 0.150 + 0.85(1.000/2) = 0.575</t>
+  </si>
+  <si>
+    <t>PR(B) = (1-d) + d(PR(A)/C(A) + PR(E)/C(E) + PR(G)/C(G))</t>
+  </si>
+  <si>
+    <t>PR(B) = 0.150 + 0.85(0.575/1 + 1.000/1 + 1.000/1) = 2.339</t>
+  </si>
+  <si>
+    <t>PR(C) = (1-d) + d(PR(B)/C(B))</t>
+  </si>
+  <si>
+    <t>PR(C) = 0.150 + 0.85(2.339/1) = 2.138</t>
+  </si>
+  <si>
+    <t>PR(D) = (1-d)</t>
+  </si>
+  <si>
+    <t>PR(D) = 0.150 = 0.150</t>
+  </si>
+  <si>
+    <t>PR(E) = (1-d)</t>
+  </si>
+  <si>
+    <t>PR(E) = 0.150 = 0.150</t>
+  </si>
+  <si>
+    <t>PR(F) = (1-d)</t>
+  </si>
+  <si>
+    <t>PR(F) = 0.150 = 0.150</t>
+  </si>
+  <si>
+    <t>PR(G) = (1-d) + d(PR(C)/C(C) + PR(H)/C(H))</t>
+  </si>
+  <si>
+    <t>PR(G) = 0.150 + 0.85(2.138/2 + 1.000/1) = 1.909</t>
+  </si>
+  <si>
+    <t>PR(H) = (1-d)</t>
+  </si>
+  <si>
+    <t>PR(H) = 0.150 = 0.150</t>
+  </si>
+  <si>
+    <t>PR(I) = (1-d) + d(PR(J)/C(J))</t>
+  </si>
+  <si>
+    <t>PR(I) = 0.150 + 0.85(1.000/1) = 1.000</t>
+  </si>
+  <si>
+    <t>PR(J) = (1-d) + d(PR(I)/C(I))</t>
+  </si>
+  <si>
+    <t>PR(J) = 0.150 + 0.85(1.000/1) = 1.000</t>
+  </si>
+  <si>
+    <t>PR(A) = 0.150 + 0.85(2.138/2) = 1.059</t>
+  </si>
+  <si>
+    <t>PR(B) = 0.150 + 0.85(1.059/1 + 0.150/1 + 1.909/1) = 2.800</t>
+  </si>
+  <si>
+    <t>PR(C) = 0.150 + 0.85(2.800/1) = 2.530</t>
+  </si>
+  <si>
+    <t>PR(G) = 0.150 + 0.85(2.530/2 + 0.150/1) = 1.353</t>
+  </si>
+  <si>
+    <t>PR(A) = 0.150 + 0.85(2.530/2) = 1.225</t>
+  </si>
+  <si>
+    <t>PR(B) = 0.150 + 0.85(1.225/1 + 0.150/1 + 1.353/1) = 2.469</t>
+  </si>
+  <si>
+    <t>PR(C) = 0.150 + 0.85(2.469/1) = 2.248</t>
+  </si>
+  <si>
+    <t>PR(G) = 0.150 + 0.85(2.248/2 + 0.150/1) = 1.233</t>
+  </si>
+  <si>
+    <t>PR(A) = 0.150 + 0.85(2.248/2) = 1.106</t>
+  </si>
+  <si>
+    <t>PR(B) = 0.150 + 0.85(1.106/1 + 0.150/1 + 1.233/1) = 2.265</t>
+  </si>
+  <si>
+    <t>PR(C) = 0.150 + 0.85(2.265/1) = 2.075</t>
+  </si>
+  <si>
+    <t>PR(G) = 0.150 + 0.85(2.075/2 + 0.150/1) = 1.160</t>
+  </si>
+  <si>
+    <t>PR(K) = (1-d)</t>
+  </si>
+  <si>
+    <t>PR(K) = 0.150 = 0.150</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,12 +384,6 @@
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -333,13 +405,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -353,8 +418,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +435,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,34 +459,30 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -873,14 +946,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1CED30-3D2A-43E6-8358-BB4D6AC2C7AE}">
   <dimension ref="A1:D182"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A108" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A108" workbookViewId="0">
       <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -930,40 +1003,40 @@
     </row>
     <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="A17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="A18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
@@ -973,43 +1046,43 @@
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
     </row>
     <row r="24" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+      <c r="A24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="A25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+      <c r="A26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1023,17 +1096,17 @@
     </row>
     <row r="31" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
@@ -1041,17 +1114,17 @@
     </row>
     <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
@@ -1067,7 +1140,7 @@
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
@@ -1075,32 +1148,32 @@
     </row>
     <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
     </row>
     <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
+      <c r="A45" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
+      <c r="A46" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
+      <c r="A47" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
@@ -1110,7 +1183,7 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
@@ -1118,38 +1191,38 @@
     </row>
     <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
     </row>
     <row r="54" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
+      <c r="A54" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
     </row>
     <row r="55" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
+      <c r="A55" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
     </row>
     <row r="56" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
+      <c r="A56" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
     </row>
     <row r="57" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
     </row>
     <row r="58" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1163,17 +1236,17 @@
     </row>
     <row r="61" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
@@ -1181,17 +1254,17 @@
     </row>
     <row r="65" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
@@ -1207,7 +1280,7 @@
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
@@ -1215,32 +1288,32 @@
     </row>
     <row r="72" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
     </row>
     <row r="74" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
+      <c r="A74" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
     </row>
     <row r="75" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
+      <c r="A75" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
     </row>
     <row r="76" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A76" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
+      <c r="A76" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
     </row>
     <row r="77" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
@@ -1250,7 +1323,7 @@
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
@@ -1258,32 +1331,32 @@
     </row>
     <row r="80" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
     </row>
     <row r="82" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
+      <c r="A82" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
     </row>
     <row r="83" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A83" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
+      <c r="A83" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
     </row>
     <row r="84" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A84" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
+      <c r="A84" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
     </row>
     <row r="85" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
@@ -1292,7 +1365,7 @@
       <c r="A86" s="1"/>
     </row>
     <row r="87" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1306,17 +1379,17 @@
     </row>
     <row r="90" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
@@ -1324,17 +1397,17 @@
     </row>
     <row r="94" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
@@ -1350,7 +1423,7 @@
         <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
@@ -1358,32 +1431,32 @@
     </row>
     <row r="101" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
     </row>
     <row r="103" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
+      <c r="A103" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
     </row>
     <row r="104" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A104" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
+      <c r="A104" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
     </row>
     <row r="105" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A105" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
+      <c r="A105" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
     </row>
     <row r="106" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
@@ -1393,7 +1466,7 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
@@ -1401,32 +1474,32 @@
     </row>
     <row r="109" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
     </row>
     <row r="111" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A111" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
+      <c r="A111" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
     </row>
     <row r="112" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A112" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
+      <c r="A112" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
     </row>
     <row r="113" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A113" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
+      <c r="A113" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
     </row>
     <row r="114" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
@@ -1626,7 +1699,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1634,191 +1707,736 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C945DC06-A6BB-44BE-8D66-884C044AD7A0}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.4140625" customWidth="1"/>
+    <col min="3" max="3" width="30.9140625" customWidth="1"/>
+    <col min="5" max="5" width="43.6640625" customWidth="1"/>
+    <col min="7" max="7" width="40.5" customWidth="1"/>
+    <col min="9" max="9" width="36.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" ht="31" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="C1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="62" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="C2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="77.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="C3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="108.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="108.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="62" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="77.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="31" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="31" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="31" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="93" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="93" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="31" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="62" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="77.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="C19" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="62" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="C20" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="C21" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="C22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="C23" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="8"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
+    </row>
+    <row r="49" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="8"/>
+    </row>
+    <row r="50" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
+    </row>
+    <row r="51" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="8"/>
+    </row>
+    <row r="52" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="8"/>
+    </row>
+    <row r="53" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="8"/>
+    </row>
+    <row r="54" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="8"/>
+    </row>
+    <row r="55" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="8"/>
+    </row>
+    <row r="56" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="8"/>
+    </row>
+    <row r="57" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="8"/>
+    </row>
+    <row r="58" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="8"/>
+    </row>
+    <row r="59" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="8"/>
+    </row>
+    <row r="60" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="8"/>
+    </row>
+    <row r="61" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="8"/>
+    </row>
+    <row r="62" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="8"/>
+    </row>
+    <row r="63" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="8"/>
+    </row>
+    <row r="64" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="8"/>
+    </row>
+    <row r="65" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="8"/>
+    </row>
+    <row r="66" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="8"/>
+    </row>
+    <row r="67" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="8"/>
+    </row>
+    <row r="68" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="8"/>
+    </row>
+    <row r="69" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="8"/>
+    </row>
+    <row r="70" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="8"/>
+    </row>
+    <row r="71" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="8"/>
+    </row>
+    <row r="72" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="8"/>
+    </row>
+    <row r="73" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="8"/>
+    </row>
+    <row r="74" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="8"/>
+    </row>
+    <row r="75" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="8"/>
+    </row>
+    <row r="76" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A76" s="8"/>
+    </row>
+    <row r="77" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="8"/>
+    </row>
+    <row r="78" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="8"/>
+    </row>
+    <row r="79" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="8"/>
+    </row>
+    <row r="80" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="8"/>
+    </row>
+    <row r="81" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="8"/>
+    </row>
+    <row r="82" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A82" s="8"/>
+    </row>
+    <row r="83" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="8"/>
+    </row>
+    <row r="84" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A84" s="8"/>
+    </row>
+    <row r="85" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A85" s="8"/>
+    </row>
+    <row r="86" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A86" s="8"/>
+    </row>
+    <row r="87" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A87" s="8"/>
+    </row>
+    <row r="88" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A88" s="8"/>
+    </row>
+    <row r="89" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A89" s="8"/>
+    </row>
+    <row r="90" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A90" s="8"/>
+    </row>
+    <row r="91" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A91" s="8"/>
+    </row>
+    <row r="92" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A92" s="8"/>
+    </row>
+    <row r="93" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A93" s="8"/>
+    </row>
+    <row r="94" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A94" s="8"/>
+    </row>
+    <row r="95" spans="1:1" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A95" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
